--- a/src/test/resources/TestDriver/IFRS9_Stage3/Test.xlsx
+++ b/src/test/resources/TestDriver/IFRS9_Stage3/Test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\IFRS9_Stage3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\IFRS9_Stage3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33567ED8-A712-4F4E-87E6-13A52B9F7EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5D2573-3634-449C-9773-00C798C2FBBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2805" yWindow="2805" windowWidth="21600" windowHeight="12645" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
@@ -185,25 +185,25 @@
     <t>ATTRIBUTE</t>
   </si>
   <si>
-    <t>IFRS9_Stage3/ActivityData.xlsx</t>
-  </si>
-  <si>
-    <t>IFRS9_Stage3/ActivityData_D2.xlsx</t>
-  </si>
-  <si>
-    <t>IFRS9_Stage3/ActivityData_D3.xlsx</t>
-  </si>
-  <si>
-    <t>IFRS9_Stage3/RefData_Ifrs9.xlsx</t>
-  </si>
-  <si>
-    <t>IFRS9_Stage3/IFRS9_Stage3_Model.xlsx</t>
-  </si>
-  <si>
     <t>{"instrumentId": "LN-1002"}</t>
   </si>
   <si>
     <t>LN-1002</t>
+  </si>
+  <si>
+    <t>IFRS9_Stage3/ReferenceData/RefData_Ifrs9.xlsx</t>
+  </si>
+  <si>
+    <t>IFRS9_Stage3/Model/IFRS9_Stage3_Model.xlsx</t>
+  </si>
+  <si>
+    <t>IFRS9_Stage3/ActivityData/ActivityData.xlsx</t>
+  </si>
+  <si>
+    <t>IFRS9_Stage3/ActivityData/ActivityData_D2.xlsx</t>
+  </si>
+  <si>
+    <t>IFRS9_Stage3/ActivityData/ActivityData_D3.xlsx</t>
   </si>
 </sst>
 </file>
@@ -492,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -523,7 +523,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -534,7 +534,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -556,7 +556,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -578,7 +578,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -600,7 +600,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -622,7 +622,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -650,7 +650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -1029,7 +1029,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G1" s="4"/>
     </row>
@@ -1082,7 +1082,7 @@
         <v>20250131</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G3" s="7">
         <v>15000</v>
@@ -1114,7 +1114,7 @@
         <v>20250228</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G4" s="7">
         <v>-166.61699729843735</v>
@@ -1146,7 +1146,7 @@
         <v>20250228</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G5" s="7">
         <v>125</v>
@@ -1178,7 +1178,7 @@
         <v>20250331</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G6" s="7">
         <v>-1407.6016999999999</v>
@@ -1210,7 +1210,7 @@
         <v>20250331</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G7" s="7">
         <v>118.16670000000001</v>
@@ -1242,7 +1242,7 @@
         <v>20250331</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G8" s="7">
         <v>-125</v>
@@ -1274,7 +1274,7 @@
         <v>20250331</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G9" s="7">
         <v>-820</v>
@@ -1306,7 +1306,7 @@
         <v>20250430</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G10" s="7">
         <v>16954.028999999999</v>
@@ -1338,7 +1338,7 @@
         <v>20250430</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G11" s="7">
         <v>118.16670000000001</v>
@@ -1723,7 +1723,7 @@
         <v>24</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1760,7 +1760,7 @@
         <v>41</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E3" s="11">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>42</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E4" s="11">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>40</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E5" s="11">
         <v>15000</v>
@@ -1829,7 +1829,7 @@
         <v>41</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E6" s="11">
         <v>125</v>
@@ -1852,7 +1852,7 @@
         <v>42</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E7" s="11">
         <v>-166.61699729843735</v>
@@ -1875,7 +1875,7 @@
         <v>40</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E8" s="11">
         <v>0</v>
@@ -1898,7 +1898,7 @@
         <v>41</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E9" s="11">
         <v>-6.8332999999999942</v>
@@ -1921,7 +1921,7 @@
         <v>42</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E10" s="11">
         <v>-1407.6016999999999</v>
@@ -1944,7 +1944,7 @@
         <v>40</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E11" s="11">
         <v>-820</v>
@@ -1967,7 +1967,7 @@
         <v>41</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E12" s="11">
         <v>0</v>
@@ -1990,7 +1990,7 @@
         <v>42</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E13" s="11">
         <v>16954.028999999999</v>
@@ -2013,7 +2013,7 @@
         <v>40</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E14" s="11">
         <v>118.16670000000001</v>
@@ -2058,7 +2058,7 @@
         <v>29</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2089,7 +2089,7 @@
         <v>41</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D3" s="11">
         <v>0</v>
@@ -2110,7 +2110,7 @@
         <v>42</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D4" s="11">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D5" s="11">
         <f>O_TransactionActivity2!G3</f>
@@ -2153,7 +2153,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D6" s="11">
         <f>O_TransactionActivity2!G5</f>
@@ -2176,7 +2176,7 @@
         <v>42</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D7" s="11">
         <f>O_TransactionActivity2!G4</f>
@@ -2199,7 +2199,7 @@
         <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D8" s="11">
         <v>0</v>
@@ -2221,7 +2221,7 @@
         <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D9" s="11">
         <f>O_TransactionActivity2!G7+O_TransactionActivity2!G8</f>
@@ -2244,7 +2244,7 @@
         <v>42</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D10" s="11">
         <f>O_TransactionActivity2!G6</f>
@@ -2267,7 +2267,7 @@
         <v>40</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D11" s="11">
         <f>O_TransactionActivity2!G9</f>
@@ -2290,7 +2290,7 @@
         <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D12" s="11">
         <v>0</v>
@@ -2312,7 +2312,7 @@
         <v>42</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D13" s="11">
         <f>O_TransactionActivity2!G10</f>
@@ -2335,7 +2335,7 @@
         <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D14" s="11">
         <f>O_TransactionActivity2!G11</f>

--- a/src/test/resources/TestDriver/IFRS9_Stage3/Test.xlsx
+++ b/src/test/resources/TestDriver/IFRS9_Stage3/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\IFRS9_Stage3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5D2573-3634-449C-9773-00C798C2FBBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAC3052-6F04-45E6-959F-0F093919004E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2805" yWindow="2805" windowWidth="21600" windowHeight="12645" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
@@ -492,7 +492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -650,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -932,7 +932,7 @@
         <v>20250430</v>
       </c>
       <c r="B10" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>37</v>
@@ -964,7 +964,7 @@
         <v>20250430</v>
       </c>
       <c r="B11" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>33</v>
@@ -1013,7 +1013,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1294,7 +1294,7 @@
         <v>20250430</v>
       </c>
       <c r="B10" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>37</v>
@@ -1326,7 +1326,7 @@
         <v>20250430</v>
       </c>
       <c r="B11" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>33</v>
@@ -1704,7 +1704,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/src/test/resources/TestDriver/IFRS9_Stage3/Test.xlsx
+++ b/src/test/resources/TestDriver/IFRS9_Stage3/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\IFRS9_Stage3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAC3052-6F04-45E6-959F-0F093919004E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133B44CD-5BD2-4ADE-861B-52F509ABCE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="50">
   <si>
     <t>Steps</t>
   </si>
@@ -198,9 +198,6 @@
   </si>
   <si>
     <t>IFRS9_Stage3/ActivityData/ActivityData.xlsx</t>
-  </si>
-  <si>
-    <t>IFRS9_Stage3/ActivityData/ActivityData_D2.xlsx</t>
   </si>
   <si>
     <t>IFRS9_Stage3/ActivityData/ActivityData_D3.xlsx</t>
@@ -490,11 +487,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -572,35 +567,35 @@
     </row>
     <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>49</v>
+        <v>10</v>
+      </c>
+      <c r="C7" s="2">
+        <v>45716</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2">
-        <v>45716</v>
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>50</v>
+        <v>10</v>
+      </c>
+      <c r="C9" s="2">
+        <v>45747</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -611,28 +606,6 @@
         <v>10</v>
       </c>
       <c r="C10" s="2">
-        <v>45747</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2">
         <v>45777</v>
       </c>
     </row>
@@ -650,7 +623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/TestDriver/IFRS9_Stage3/Test.xlsx
+++ b/src/test/resources/TestDriver/IFRS9_Stage3/Test.xlsx
@@ -5,30 +5,31 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\IFRS9_Stage3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133B44CD-5BD2-4ADE-861B-52F509ABCE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078F7EF6-02DE-495F-8CFF-D4F9B7D353D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Test" sheetId="1" r:id="rId1"/>
-    <sheet name="O_TransactionActivity" sheetId="2" r:id="rId2"/>
-    <sheet name="O_TransactionActivity2" sheetId="6" r:id="rId3"/>
-    <sheet name="O_Attribute" sheetId="3" r:id="rId4"/>
-    <sheet name="O_Attribute2" sheetId="8" r:id="rId5"/>
-    <sheet name="O_Instrument2" sheetId="7" r:id="rId6"/>
-    <sheet name="O_Instrument" sheetId="4" r:id="rId7"/>
-    <sheet name="O_Metric" sheetId="5" r:id="rId8"/>
+    <sheet name="xTest" sheetId="1" r:id="rId1"/>
+    <sheet name="Test" sheetId="2" r:id="rId2"/>
+    <sheet name="O_TransactionActivity" sheetId="3" r:id="rId3"/>
+    <sheet name="O_TransactionActivity2" sheetId="4" r:id="rId4"/>
+    <sheet name="O_Attribute" sheetId="5" r:id="rId5"/>
+    <sheet name="O_Attribute2" sheetId="6" r:id="rId6"/>
+    <sheet name="O_Instrument2" sheetId="7" r:id="rId7"/>
+    <sheet name="O_Instrument" sheetId="8" r:id="rId8"/>
+    <sheet name="O_Metric" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">O_Attribute!$A$2:$G$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">O_Attribute2!$A$2:$G$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">O_Instrument!$A$2:$F$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">O_Instrument2!$A$2:$F$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">O_TransactionActivity!$A$2:$J$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">O_TransactionActivity2!$A$2:$J$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">O_Attribute!$A$2:$G$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">O_Attribute2!$A$2:$G$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">O_Instrument!$A$2:$F$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">O_Instrument2!$A$2:$F$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">O_TransactionActivity!$A$2:$J$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">O_TransactionActivity2!$A$2:$J$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,15 +44,12 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="58">
   <si>
     <t>Steps</t>
   </si>
@@ -68,27 +66,69 @@
     <t>FILE_UPLOAD</t>
   </si>
   <si>
+    <t>IFRS9_Stage3/ReferenceData/RefData_Ifrs9.xlsx</t>
+  </si>
+  <si>
+    <t>EVENT_CONFIGURATION</t>
+  </si>
+  <si>
+    <t>CONFIGURATION</t>
+  </si>
+  <si>
+    <t>IFRS9_Stage3/EventConfigurations.json</t>
+  </si>
+  <si>
     <t>MODEL_UPLOAD</t>
   </si>
   <si>
+    <t>IFRS9_Stage3/Model/IFRS9_Stage3_Model.xlsx</t>
+  </si>
+  <si>
     <t>MODEL_CONFIGURATION</t>
   </si>
   <si>
-    <t>CONFIGURATION</t>
+    <t>ATTRIBUTE</t>
+  </si>
+  <si>
+    <t>CUSTOM_TABLE_DEFINITION</t>
+  </si>
+  <si>
+    <t>IFRS9_Stage3/CustomTableDefinitions.json</t>
   </si>
   <si>
     <t>ACTIVITY_UPLOAD</t>
   </si>
   <si>
+    <t>IFRS9_Stage3/ActivityData/ActivityData.xlsx</t>
+  </si>
+  <si>
     <t>MODEL_EXECUTION</t>
   </si>
   <si>
     <t>EXECUTION</t>
   </si>
   <si>
+    <t>UPLOAD_CUSTOM_DATA</t>
+  </si>
+  <si>
+    <t>IFRS9_Stage3/ActivityData/ActivityData_D2_Custom.xlsx</t>
+  </si>
+  <si>
+    <t>IFRS9_Stage3/ActivityData/ActivityData_D3.xlsx</t>
+  </si>
+  <si>
+    <t>IFRS9_Stage3/ActivityData/ActivityData_D3_Custom.xlsx</t>
+  </si>
+  <si>
+    <t>IFRS9_Stage3/ActivityData/ActivityData_D4_Custom.xlsx</t>
+  </si>
+  <si>
     <t>TransactionActivity</t>
   </si>
   <si>
+    <t>{"instrumentId": "LN-1001"}</t>
+  </si>
+  <si>
     <t>postingDate ASC</t>
   </si>
   <si>
@@ -119,27 +159,63 @@
     <t>isReplayable</t>
   </si>
   <si>
+    <t>ORIGINATION_PRINCIPAL</t>
+  </si>
+  <si>
     <t>MODEL</t>
   </si>
   <si>
+    <t>LN-1001</t>
+  </si>
+  <si>
+    <t>IMPAIRMENT_LOSS</t>
+  </si>
+  <si>
+    <t>INTEREST_ACCRUAL</t>
+  </si>
+  <si>
+    <t>PAYMENT_INTEREST</t>
+  </si>
+  <si>
     <t>ETL</t>
   </si>
   <si>
+    <t>PAYMENT_UPB</t>
+  </si>
+  <si>
+    <t>IMPAIRMENT_GAIN</t>
+  </si>
+  <si>
+    <t>{"instrumentId": "LN-1002"}</t>
+  </si>
+  <si>
+    <t>LN-1002</t>
+  </si>
+  <si>
     <t>AttributeLevelLtd</t>
   </si>
   <si>
     <t>metricName ASC</t>
   </si>
   <si>
+    <t>balance.activity</t>
+  </si>
+  <si>
     <t>balance.beginningBalance</t>
   </si>
   <si>
-    <t>balance.activity</t>
-  </si>
-  <si>
     <t>balance.endingBalance</t>
   </si>
   <si>
+    <t>AIR</t>
+  </si>
+  <si>
+    <t>IMPAIRMENT</t>
+  </si>
+  <si>
+    <t>UPB</t>
+  </si>
+  <si>
     <t>InstrumentLevelLtd</t>
   </si>
   <si>
@@ -147,60 +223,6 @@
   </si>
   <si>
     <t>{}</t>
-  </si>
-  <si>
-    <t>ORIGINATION_PRINCIPAL</t>
-  </si>
-  <si>
-    <t>INTEREST_ACCRUAL</t>
-  </si>
-  <si>
-    <t>IMPAIRMENT_LOSS</t>
-  </si>
-  <si>
-    <t>PAYMENT_UPB</t>
-  </si>
-  <si>
-    <t>PAYMENT_INTEREST</t>
-  </si>
-  <si>
-    <t>IMPAIRMENT_GAIN</t>
-  </si>
-  <si>
-    <t>LN-1001</t>
-  </si>
-  <si>
-    <t>{"instrumentId": "LN-1001"}</t>
-  </si>
-  <si>
-    <t>UPB</t>
-  </si>
-  <si>
-    <t>AIR</t>
-  </si>
-  <si>
-    <t>IMPAIRMENT</t>
-  </si>
-  <si>
-    <t>ATTRIBUTE</t>
-  </si>
-  <si>
-    <t>{"instrumentId": "LN-1002"}</t>
-  </si>
-  <si>
-    <t>LN-1002</t>
-  </si>
-  <si>
-    <t>IFRS9_Stage3/ReferenceData/RefData_Ifrs9.xlsx</t>
-  </si>
-  <si>
-    <t>IFRS9_Stage3/Model/IFRS9_Stage3_Model.xlsx</t>
-  </si>
-  <si>
-    <t>IFRS9_Stage3/ActivityData/ActivityData.xlsx</t>
-  </si>
-  <si>
-    <t>IFRS9_Stage3/ActivityData/ActivityData_D3.xlsx</t>
   </si>
 </sst>
 </file>
@@ -215,23 +237,18 @@
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -244,7 +261,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor rgb="FFC0C0C0"/>
+        <bgColor indexed="22"/>
       </patternFill>
     </fill>
   </fills>
@@ -276,96 +293,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFD9D9D9"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFF19F9E"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -489,13 +439,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -518,100 +468,100 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2">
-        <v>45688</v>
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2">
-        <v>45716</v>
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3">
+        <v>45688</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="2">
-        <v>45747</v>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2">
-        <v>45777</v>
+        <v>18</v>
+      </c>
+      <c r="C10" s="3">
+        <v>45716</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.78750000000000009" right="0.78750000000000009" top="1.05277777777778" bottom="1.05277777777778" header="0.78750000000000009" footer="0.78750000000000009"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -621,9 +571,200 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3">
+        <v>45688</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="3">
+        <v>45716</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="3">
+        <v>45747</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3">
+        <v>45777</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78750000000000009" right="0.78750000000000009" top="1.05277777777778" bottom="1.05277777777778" header="0.78750000000000009" footer="0.78750000000000009"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -636,331 +777,331 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>20250131</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="7">
+        <v>20250131</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="9">
+        <v>12000</v>
+      </c>
+      <c r="H3" s="7">
+        <v>202501</v>
+      </c>
+      <c r="I3" s="7">
+        <v>202501</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>20250228</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
-        <v>20250131</v>
-      </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="6">
-        <v>20250131</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="7">
-        <v>12000</v>
-      </c>
-      <c r="H3" s="6">
-        <v>202501</v>
-      </c>
-      <c r="I3" s="6">
-        <v>202501</v>
-      </c>
-      <c r="J3" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="D4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="7">
         <v>20250228</v>
       </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="F4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="9">
+        <v>-3065.4515000000001</v>
+      </c>
+      <c r="H4" s="7">
+        <v>202502</v>
+      </c>
+      <c r="I4" s="7">
+        <v>202502</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
         <v>20250228</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="7">
-        <v>-3065.4515000000001</v>
-      </c>
-      <c r="H4" s="6">
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="7">
+        <v>20250228</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="9">
+        <v>60</v>
+      </c>
+      <c r="H5" s="7">
         <v>202502</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I5" s="7">
         <v>202502</v>
       </c>
-      <c r="J4" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
-        <v>20250228</v>
-      </c>
-      <c r="B5" s="6">
-        <v>1</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="6">
-        <v>20250228</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="7">
-        <v>60</v>
-      </c>
-      <c r="H5" s="6">
-        <v>202502</v>
-      </c>
-      <c r="I5" s="6">
-        <v>202502</v>
-      </c>
-      <c r="J5" s="6">
+      <c r="J5" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="A6" s="7">
         <v>20250331</v>
       </c>
-      <c r="B6" s="6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="7">
         <v>20250331</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="7">
+      <c r="F6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="9">
         <v>-283.98700000000002</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="7">
         <v>202503</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="7">
         <v>202503</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="A7" s="7">
         <v>20250331</v>
       </c>
-      <c r="B7" s="6">
-        <v>1</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="7">
         <v>20250331</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="7">
+      <c r="F7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="9">
         <v>55.15</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="7">
         <v>202503</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="7">
         <v>202503</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="A8" s="7">
         <v>20250331</v>
       </c>
-      <c r="B8" s="6">
-        <v>1</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="6">
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="7">
         <v>20250331</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="7">
+      <c r="F8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="9">
         <v>-60</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="7">
         <v>202503</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="7">
         <v>202503</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="A9" s="7">
         <v>20250331</v>
       </c>
-      <c r="B9" s="6">
-        <v>1</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="6">
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="7">
         <v>20250331</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="7">
+      <c r="F9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="9">
         <v>-970</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="7">
         <v>202503</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="7">
         <v>202503</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="A10" s="7">
         <v>20250430</v>
       </c>
-      <c r="B10" s="6">
-        <v>1</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="6">
+      <c r="E10" s="7">
         <v>20250430</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="7">
+      <c r="F10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="9">
         <v>2836.4295999999999</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="7">
         <v>202504</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="7">
         <v>202504</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="A11" s="7">
         <v>20250430</v>
       </c>
-      <c r="B11" s="6">
-        <v>1</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="7">
         <v>20250430</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="7">
+      <c r="F11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="9">
         <v>55.15</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="7">
         <v>202504</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="7">
         <v>202504</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="7">
         <v>0</v>
       </c>
     </row>
@@ -972,8 +1113,8 @@
     <sortCondition ref="D3:D11"/>
     <sortCondition ref="E3:E11"/>
   </sortState>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.78750000000000009" right="0.78750000000000009" top="1.05277777777778" bottom="1.05277777777778" header="0.78750000000000009" footer="0.78750000000000009"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -981,11 +1122,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D1F38B-58CA-414A-83C8-EF78B7F83629}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -998,337 +1139,337 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>20250131</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="7">
+        <v>20250131</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="9">
+        <v>15000</v>
+      </c>
+      <c r="H3" s="7">
+        <v>202501</v>
+      </c>
+      <c r="I3" s="7">
+        <v>202501</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>20250228</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="7">
+        <v>20250228</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="9">
+        <v>-166.61699729843735</v>
+      </c>
+      <c r="H4" s="7">
+        <v>202502</v>
+      </c>
+      <c r="I4" s="7">
+        <v>202502</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>20250228</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="7">
+        <v>20250228</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="9">
+        <v>125</v>
+      </c>
+      <c r="H5" s="7">
+        <v>202502</v>
+      </c>
+      <c r="I5" s="7">
+        <v>202502</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>20250331</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="7">
+        <v>20250331</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="9">
+        <v>-1407.6016999999999</v>
+      </c>
+      <c r="H6" s="7">
+        <v>202503</v>
+      </c>
+      <c r="I6" s="7">
+        <v>202503</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>20250331</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="7">
+        <v>20250331</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="9">
+        <v>118.16670000000001</v>
+      </c>
+      <c r="H7" s="7">
+        <v>202503</v>
+      </c>
+      <c r="I7" s="7">
+        <v>202503</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>20250331</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="7">
+        <v>20250331</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="9">
+        <v>-125</v>
+      </c>
+      <c r="H8" s="7">
+        <v>202503</v>
+      </c>
+      <c r="I8" s="7">
+        <v>202503</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>20250331</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="7">
+        <v>20250331</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="9">
+        <v>-820</v>
+      </c>
+      <c r="H9" s="7">
+        <v>202503</v>
+      </c>
+      <c r="I9" s="7">
+        <v>202503</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <v>20250430</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
-        <v>20250131</v>
-      </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="6">
-        <v>20250131</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="7">
-        <v>15000</v>
-      </c>
-      <c r="H3" s="6">
-        <v>202501</v>
-      </c>
-      <c r="I3" s="6">
-        <v>202501</v>
-      </c>
-      <c r="J3" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>20250228</v>
-      </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="6">
-        <v>20250228</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="7">
-        <v>-166.61699729843735</v>
-      </c>
-      <c r="H4" s="6">
-        <v>202502</v>
-      </c>
-      <c r="I4" s="6">
-        <v>202502</v>
-      </c>
-      <c r="J4" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
-        <v>20250228</v>
-      </c>
-      <c r="B5" s="6">
-        <v>1</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="6">
-        <v>20250228</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="7">
-        <v>125</v>
-      </c>
-      <c r="H5" s="6">
-        <v>202502</v>
-      </c>
-      <c r="I5" s="6">
-        <v>202502</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
-        <v>20250331</v>
-      </c>
-      <c r="B6" s="6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="6">
-        <v>20250331</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="7">
-        <v>-1407.6016999999999</v>
-      </c>
-      <c r="H6" s="6">
-        <v>202503</v>
-      </c>
-      <c r="I6" s="6">
-        <v>202503</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
-        <v>20250331</v>
-      </c>
-      <c r="B7" s="6">
-        <v>1</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="6">
-        <v>20250331</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="7">
+      <c r="D10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="7">
+        <v>20250430</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="9">
+        <v>16954.028999999999</v>
+      </c>
+      <c r="H10" s="7">
+        <v>202504</v>
+      </c>
+      <c r="I10" s="7">
+        <v>202504</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>20250430</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="7">
+        <v>20250430</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="9">
         <v>118.16670000000001</v>
       </c>
-      <c r="H7" s="6">
-        <v>202503</v>
-      </c>
-      <c r="I7" s="6">
-        <v>202503</v>
-      </c>
-      <c r="J7" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
-        <v>20250331</v>
-      </c>
-      <c r="B8" s="6">
-        <v>1</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="6">
-        <v>20250331</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="7">
-        <v>-125</v>
-      </c>
-      <c r="H8" s="6">
-        <v>202503</v>
-      </c>
-      <c r="I8" s="6">
-        <v>202503</v>
-      </c>
-      <c r="J8" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
-        <v>20250331</v>
-      </c>
-      <c r="B9" s="6">
-        <v>1</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="6">
-        <v>20250331</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="7">
-        <v>-820</v>
-      </c>
-      <c r="H9" s="6">
-        <v>202503</v>
-      </c>
-      <c r="I9" s="6">
-        <v>202503</v>
-      </c>
-      <c r="J9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
-        <v>20250430</v>
-      </c>
-      <c r="B10" s="6">
-        <v>1</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="6">
-        <v>20250430</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="7">
-        <v>16954.028999999999</v>
-      </c>
-      <c r="H10" s="6">
+      <c r="H11" s="7">
         <v>202504</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I11" s="7">
         <v>202504</v>
       </c>
-      <c r="J10" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
-        <v>20250430</v>
-      </c>
-      <c r="B11" s="6">
-        <v>1</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="6">
-        <v>20250430</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="7">
-        <v>118.16670000000001</v>
-      </c>
-      <c r="H11" s="6">
-        <v>202504</v>
-      </c>
-      <c r="I11" s="6">
-        <v>202504</v>
-      </c>
-      <c r="J11" s="6">
+      <c r="J11" s="7">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.78750000000000009" right="0.78750000000000009" top="1.05277777777778" bottom="1.05277777777778" header="0.78750000000000009" footer="0.78750000000000009"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1336,11 +1477,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -1356,34 +1497,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>39</v>
+      <c r="A1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1394,7 +1535,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>38</v>
@@ -1416,8 +1557,8 @@
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>42</v>
+      <c r="C4" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>38</v>
@@ -1440,7 +1581,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>38</v>
@@ -1463,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>38</v>
@@ -1485,8 +1626,8 @@
       <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>42</v>
+      <c r="C7" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>38</v>
@@ -1509,7 +1650,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>38</v>
@@ -1532,7 +1673,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>38</v>
@@ -1554,8 +1695,8 @@
       <c r="B10" s="1">
         <v>1</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>42</v>
+      <c r="C10" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>38</v>
@@ -1578,7 +1719,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>38</v>
@@ -1601,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>38</v>
@@ -1623,8 +1764,8 @@
       <c r="B13" s="1">
         <v>1</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>42</v>
+      <c r="C13" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>38</v>
@@ -1647,7 +1788,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>38</v>
@@ -1663,8 +1804,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.78750000000000009" right="0.78750000000000009" top="1.05277777777778" bottom="1.05277777777778" header="0.78750000000000009" footer="0.78750000000000009"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1672,11 +1813,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A86C2536-A776-4BAB-ADAC-4F4DC6BDF1CD}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
@@ -1692,34 +1833,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>44</v>
+      <c r="A1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1730,10 +1871,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3" s="11">
         <v>0</v>
@@ -1752,11 +1893,11 @@
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>42</v>
+      <c r="C4" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E4" s="11">
         <v>0</v>
@@ -1776,10 +1917,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E5" s="11">
         <v>15000</v>
@@ -1799,10 +1940,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6" s="11">
         <v>125</v>
@@ -1821,11 +1962,11 @@
       <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>42</v>
+      <c r="C7" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E7" s="11">
         <v>-166.61699729843735</v>
@@ -1845,10 +1986,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E8" s="11">
         <v>0</v>
@@ -1868,10 +2009,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E9" s="11">
         <v>-6.8332999999999942</v>
@@ -1890,11 +2031,11 @@
       <c r="B10" s="1">
         <v>1</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>42</v>
+      <c r="C10" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E10" s="11">
         <v>-1407.6016999999999</v>
@@ -1914,10 +2055,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E11" s="11">
         <v>-820</v>
@@ -1937,10 +2078,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12" s="11">
         <v>0</v>
@@ -1959,11 +2100,11 @@
       <c r="B13" s="1">
         <v>1</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>42</v>
+      <c r="C13" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E13" s="11">
         <v>16954.028999999999</v>
@@ -1983,10 +2124,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E14" s="11">
         <v>118.16670000000001</v>
@@ -1999,8 +2140,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.78750000000000009" right="0.78750000000000009" top="1.05277777777778" bottom="1.05277777777778" header="0.78750000000000009" footer="0.78750000000000009"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2008,11 +2149,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2B0318-3126-45CF-94D8-1E8EDFBBDE58}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" workbookViewId="0">
       <selection activeCell="C4" sqref="C4:C14"/>
     </sheetView>
   </sheetViews>
@@ -2027,31 +2168,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>44</v>
+      <c r="A1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2059,10 +2200,10 @@
         <v>20220131</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" s="11">
         <v>0</v>
@@ -2079,11 +2220,11 @@
       <c r="A4" s="1">
         <v>20220131</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>42</v>
+      <c r="B4" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4" s="11">
         <v>0</v>
@@ -2101,10 +2242,10 @@
         <v>20220131</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5" s="11">
         <f>O_TransactionActivity2!G3</f>
@@ -2123,10 +2264,10 @@
         <v>20220228</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D6" s="11">
         <f>O_TransactionActivity2!G5</f>
@@ -2145,11 +2286,11 @@
       <c r="A7" s="1">
         <v>20220228</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>42</v>
+      <c r="B7" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7" s="11">
         <f>O_TransactionActivity2!G4</f>
@@ -2169,10 +2310,10 @@
         <v>20220228</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D8" s="11">
         <v>0</v>
@@ -2191,10 +2332,10 @@
         <v>20220331</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9" s="11">
         <f>O_TransactionActivity2!G7+O_TransactionActivity2!G8</f>
@@ -2213,11 +2354,11 @@
       <c r="A10" s="1">
         <v>20220331</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>42</v>
+      <c r="B10" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10" s="11">
         <f>O_TransactionActivity2!G6</f>
@@ -2237,10 +2378,10 @@
         <v>20220331</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D11" s="11">
         <f>O_TransactionActivity2!G9</f>
@@ -2260,10 +2401,10 @@
         <v>20220430</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12" s="11">
         <v>0</v>
@@ -2281,11 +2422,11 @@
       <c r="A13" s="1">
         <v>20220430</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>42</v>
+      <c r="B13" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D13" s="11">
         <f>O_TransactionActivity2!G10</f>
@@ -2305,10 +2446,10 @@
         <v>20220430</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D14" s="11">
         <f>O_TransactionActivity2!G11</f>
@@ -2324,8 +2465,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.78750000000000009" right="0.78750000000000009" top="1.05277777777778" bottom="1.05277777777778" header="0.78750000000000009" footer="0.78750000000000009"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2333,11 +2474,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -2352,31 +2493,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>39</v>
+      <c r="A1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2384,7 +2525,7 @@
         <v>20220131</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>38</v>
@@ -2404,8 +2545,8 @@
       <c r="A4" s="1">
         <v>20220131</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>42</v>
+      <c r="B4" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>38</v>
@@ -2426,7 +2567,7 @@
         <v>20220131</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>38</v>
@@ -2448,7 +2589,7 @@
         <v>20220228</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>38</v>
@@ -2470,8 +2611,8 @@
       <c r="A7" s="1">
         <v>20220228</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>42</v>
+      <c r="B7" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>38</v>
@@ -2494,7 +2635,7 @@
         <v>20220228</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>38</v>
@@ -2516,7 +2657,7 @@
         <v>20220331</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>38</v>
@@ -2538,8 +2679,8 @@
       <c r="A10" s="1">
         <v>20220331</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>42</v>
+      <c r="B10" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>38</v>
@@ -2562,7 +2703,7 @@
         <v>20220331</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>38</v>
@@ -2585,7 +2726,7 @@
         <v>20220430</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>38</v>
@@ -2607,8 +2748,8 @@
       <c r="A13" s="1">
         <v>20220430</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>42</v>
+      <c r="B13" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>38</v>
@@ -2631,7 +2772,7 @@
         <v>20220430</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>38</v>
@@ -2653,8 +2794,8 @@
     <sortCondition ref="A3:A14"/>
     <sortCondition ref="B3:B14"/>
   </sortState>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.78750000000000009" right="0.78750000000000009" top="1.05277777777778" bottom="1.05277777777778" header="0.78750000000000009" footer="0.78750000000000009"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2662,11 +2803,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScale="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2679,28 +2820,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>31</v>
+      <c r="A1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2708,7 +2849,7 @@
         <v>20220131</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C3" s="11">
         <f>O_Instrument2!D3+O_Instrument!D3</f>
@@ -2727,8 +2868,8 @@
       <c r="A4" s="1">
         <v>20220131</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>42</v>
+      <c r="B4" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="C4" s="11">
         <f>O_Instrument2!D4+O_Instrument!D4</f>
@@ -2748,7 +2889,7 @@
         <v>20220131</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C5" s="11">
         <f>O_Instrument2!D5+O_Instrument!D5</f>
@@ -2768,7 +2909,7 @@
         <v>20220228</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C6" s="11">
         <f>O_Instrument2!D6+O_Instrument!D6</f>
@@ -2787,8 +2928,8 @@
       <c r="A7" s="1">
         <v>20220228</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>42</v>
+      <c r="B7" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="C7" s="11">
         <f>O_Instrument2!D7+O_Instrument!D7</f>
@@ -2808,7 +2949,7 @@
         <v>20220228</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C8" s="11">
         <f>O_Instrument2!D8+O_Instrument!D8</f>
@@ -2828,7 +2969,7 @@
         <v>20220331</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C9" s="11">
         <f>O_Instrument2!D9+O_Instrument!D9</f>
@@ -2847,8 +2988,8 @@
       <c r="A10" s="1">
         <v>20220331</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>42</v>
+      <c r="B10" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="C10" s="11">
         <f>O_Instrument2!D10+O_Instrument!D10</f>
@@ -2868,7 +3009,7 @@
         <v>20220331</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C11" s="11">
         <f>O_Instrument2!D11+O_Instrument!D11</f>
@@ -2888,7 +3029,7 @@
         <v>20220430</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C12" s="11">
         <f>O_Instrument2!D12+O_Instrument!D12</f>
@@ -2907,8 +3048,8 @@
       <c r="A13" s="1">
         <v>20220430</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>42</v>
+      <c r="B13" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="C13" s="11">
         <f>O_Instrument2!D13+O_Instrument!D13</f>
@@ -2928,7 +3069,7 @@
         <v>20220430</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C14" s="11">
         <f>O_Instrument2!D14+O_Instrument!D14</f>
@@ -2944,8 +3085,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.78750000000000009" right="0.78750000000000009" top="1.05277777777778" bottom="1.05277777777778" header="0.78750000000000009" footer="0.78750000000000009"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/src/test/resources/TestDriver/IFRS9_Stage3/Test.xlsx
+++ b/src/test/resources/TestDriver/IFRS9_Stage3/Test.xlsx
@@ -8,28 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078F7EF6-02DE-495F-8CFF-D4F9B7D353D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408D49C4-AD08-4149-AFEA-E981642A0184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="xTest" sheetId="1" r:id="rId1"/>
-    <sheet name="Test" sheetId="2" r:id="rId2"/>
-    <sheet name="O_TransactionActivity" sheetId="3" r:id="rId3"/>
-    <sheet name="O_TransactionActivity2" sheetId="4" r:id="rId4"/>
-    <sheet name="O_Attribute" sheetId="5" r:id="rId5"/>
-    <sheet name="O_Attribute2" sheetId="6" r:id="rId6"/>
-    <sheet name="O_Instrument2" sheetId="7" r:id="rId7"/>
-    <sheet name="O_Instrument" sheetId="8" r:id="rId8"/>
-    <sheet name="O_Metric" sheetId="9" r:id="rId9"/>
+    <sheet name="Test" sheetId="1" r:id="rId1"/>
+    <sheet name="O_TransactionActivity" sheetId="3" r:id="rId2"/>
+    <sheet name="O_TransactionActivity2" sheetId="4" r:id="rId3"/>
+    <sheet name="O_Attribute" sheetId="5" r:id="rId4"/>
+    <sheet name="O_Attribute2" sheetId="6" r:id="rId5"/>
+    <sheet name="O_Instrument2" sheetId="7" r:id="rId6"/>
+    <sheet name="O_Instrument" sheetId="8" r:id="rId7"/>
+    <sheet name="O_Metric" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">O_Attribute!$A$2:$G$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">O_Attribute2!$A$2:$G$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">O_Instrument!$A$2:$F$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">O_Instrument2!$A$2:$F$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">O_TransactionActivity!$A$2:$J$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">O_TransactionActivity2!$A$2:$J$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">O_Attribute!$A$2:$G$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">O_Attribute2!$A$2:$G$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">O_Instrument!$A$2:$F$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">O_Instrument2!$A$2:$F$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">O_TransactionActivity!$A$2:$J$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">O_TransactionActivity2!$A$2:$J$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="58">
   <si>
     <t>Steps</t>
   </si>
@@ -437,143 +436,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="3">
-        <v>45688</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="3">
-        <v>45716</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78750000000000009" right="0.78750000000000009" top="1.05277777777778" bottom="1.05277777777778" header="0.78750000000000009" footer="0.78750000000000009"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -609,46 +474,46 @@
     </row>
     <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -713,7 +578,7 @@
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -735,7 +600,7 @@
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -760,7 +625,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
@@ -1122,7 +987,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
@@ -1477,7 +1342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
@@ -1813,7 +1678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
@@ -2149,7 +2014,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -2474,7 +2339,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -2803,7 +2668,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>

--- a/src/test/resources/TestDriver/IFRS9_Stage3/Test.xlsx
+++ b/src/test/resources/TestDriver/IFRS9_Stage3/Test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\IFRS9_Stage3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408D49C4-AD08-4149-AFEA-E981642A0184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9667D8D9-6667-463E-99B5-8F9628BE2E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
@@ -439,7 +439,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -562,24 +562,24 @@
     </row>
     <row r="11" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/src/test/resources/TestDriver/IFRS9_Stage3/Test.xlsx
+++ b/src/test/resources/TestDriver/IFRS9_Stage3/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\IFRS9_Stage3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9667D8D9-6667-463E-99B5-8F9628BE2E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9F8C7E-4111-4C16-9FA5-5B3775174B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
@@ -438,7 +438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -630,7 +630,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView zoomScale="120" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="E8" sqref="E8:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -856,7 +856,7 @@
         <v>42</v>
       </c>
       <c r="E8" s="7">
-        <v>20250331</v>
+        <v>20250315</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>38</v>
@@ -888,7 +888,7 @@
         <v>42</v>
       </c>
       <c r="E9" s="7">
-        <v>20250331</v>
+        <v>20250315</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>38</v>
@@ -991,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1218,7 +1218,7 @@
         <v>42</v>
       </c>
       <c r="E8" s="7">
-        <v>20250331</v>
+        <v>20250315</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>46</v>
@@ -1250,7 +1250,7 @@
         <v>42</v>
       </c>
       <c r="E9" s="7">
-        <v>20250331</v>
+        <v>20250315</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>46</v>

--- a/src/test/resources/TestDriver/IFRS9_Stage3/Test.xlsx
+++ b/src/test/resources/TestDriver/IFRS9_Stage3/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\IFRS9_Stage3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9F8C7E-4111-4C16-9FA5-5B3775174B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149711C7-966B-445C-BEF2-1F5E94791A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -250,7 +250,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,6 +261,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -292,7 +298,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
@@ -308,6 +314,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -630,7 +637,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView zoomScale="120" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:E9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -992,7 +999,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1095,8 +1102,8 @@
       <c r="F4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="9">
-        <v>-166.61699729843735</v>
+      <c r="G4" s="13">
+        <v>-5829.6143000000002</v>
       </c>
       <c r="H4" s="7">
         <v>202502</v>
@@ -1160,7 +1167,7 @@
         <v>46</v>
       </c>
       <c r="G6" s="9">
-        <v>-1407.6016999999999</v>
+        <v>-377.96300000000002</v>
       </c>
       <c r="H6" s="7">
         <v>202503</v>
@@ -1288,7 +1295,7 @@
         <v>46</v>
       </c>
       <c r="G10" s="9">
-        <v>16954.028999999999</v>
+        <v>1113.9437609697177</v>
       </c>
       <c r="H10" s="7">
         <v>202504</v>
@@ -1333,6 +1340,12 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J11">
+    <sortCondition ref="A3:A11"/>
+    <sortCondition ref="C3:C11"/>
+    <sortCondition ref="D3:D11"/>
+    <sortCondition ref="E3:E11"/>
+  </sortState>
   <pageMargins left="0.78750000000000009" right="0.78750000000000009" top="1.05277777777778" bottom="1.05277777777778" header="0.78750000000000009" footer="0.78750000000000009"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
@@ -2159,7 +2172,7 @@
       </c>
       <c r="D7" s="11">
         <f>O_TransactionActivity2!G4</f>
-        <v>-166.61699729843735</v>
+        <v>-5829.6143000000002</v>
       </c>
       <c r="E7" s="11">
         <f t="shared" si="1"/>
@@ -2167,7 +2180,7 @@
       </c>
       <c r="F7" s="11">
         <f t="shared" si="0"/>
-        <v>-166.61699729843735</v>
+        <v>-5829.6143000000002</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2227,15 +2240,15 @@
       </c>
       <c r="D10" s="11">
         <f>O_TransactionActivity2!G6</f>
-        <v>-1407.6016999999999</v>
+        <v>-377.96300000000002</v>
       </c>
       <c r="E10" s="11">
         <f t="shared" si="1"/>
-        <v>-166.61699729843735</v>
+        <v>-5829.6143000000002</v>
       </c>
       <c r="F10" s="11">
         <f t="shared" si="0"/>
-        <v>-1574.2186972984373</v>
+        <v>-6207.5772999999999</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2295,15 +2308,15 @@
       </c>
       <c r="D13" s="11">
         <f>O_TransactionActivity2!G10</f>
-        <v>16954.028999999999</v>
+        <v>1113.9437609697177</v>
       </c>
       <c r="E13" s="11">
         <f t="shared" si="1"/>
-        <v>-1574.2186972984373</v>
+        <v>-6207.5772999999999</v>
       </c>
       <c r="F13" s="11">
         <f t="shared" si="0"/>
-        <v>15379.81030270156</v>
+        <v>-5093.633539030282</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2798,7 +2811,7 @@
       </c>
       <c r="C7" s="11">
         <f>O_Instrument2!D7+O_Instrument!D7</f>
-        <v>-3232.0684972984373</v>
+        <v>-8895.0658000000003</v>
       </c>
       <c r="D7" s="11">
         <f>O_Instrument2!E7+O_Instrument!E7</f>
@@ -2806,7 +2819,7 @@
       </c>
       <c r="E7" s="11">
         <f>O_Instrument2!F7+O_Instrument!F7</f>
-        <v>-3232.0684972984373</v>
+        <v>-8895.0658000000003</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2858,15 +2871,15 @@
       </c>
       <c r="C10" s="11">
         <f>O_Instrument2!D10+O_Instrument!D10</f>
-        <v>-1691.5887</v>
+        <v>-661.95</v>
       </c>
       <c r="D10" s="11">
         <f>O_Instrument2!E10+O_Instrument!E10</f>
-        <v>-3232.0684972984373</v>
+        <v>-8895.0658000000003</v>
       </c>
       <c r="E10" s="11">
         <f>O_Instrument2!F10+O_Instrument!F10</f>
-        <v>-4923.6571972984375</v>
+        <v>-9557.015800000001</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2918,15 +2931,15 @@
       </c>
       <c r="C13" s="11">
         <f>O_Instrument2!D13+O_Instrument!D13</f>
-        <v>19790.458599999998</v>
+        <v>3950.3733609697174</v>
       </c>
       <c r="D13" s="11">
         <f>O_Instrument2!E13+O_Instrument!E13</f>
-        <v>-4923.6571972984375</v>
+        <v>-9557.015800000001</v>
       </c>
       <c r="E13" s="11">
         <f>O_Instrument2!F13+O_Instrument!F13</f>
-        <v>14866.80140270156</v>
+        <v>-5606.6424390302818</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/src/test/resources/TestDriver/IFRS9_Stage3/Test.xlsx
+++ b/src/test/resources/TestDriver/IFRS9_Stage3/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\IFRS9_Stage3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149711C7-966B-445C-BEF2-1F5E94791A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF942A89-957F-41D3-A4D1-5B7926AA0DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,10 +23,10 @@
     <sheet name="O_Metric" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">O_Attribute!$A$2:$G$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">O_Attribute2!$A$2:$G$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">O_Instrument!$A$2:$F$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">O_Instrument2!$A$2:$F$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">O_Attribute!$A$2:$G$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">O_Attribute2!$A$2:$G$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">O_Instrument!$A$2:$F$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">O_Instrument2!$A$2:$F$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">O_TransactionActivity!$A$2:$J$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">O_TransactionActivity2!$A$2:$J$11</definedName>
   </definedNames>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="58">
   <si>
     <t>Steps</t>
   </si>
@@ -999,7 +999,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1357,10 +1357,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView zoomScale="120" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1413,65 +1413,65 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E3" s="11">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="F3" s="11">
         <v>0</v>
       </c>
       <c r="G3" s="11">
-        <v>0</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>20220131</v>
+        <v>20220228</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>53</v>
+      <c r="C4" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E4" s="11">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F4" s="11">
         <v>0</v>
       </c>
       <c r="G4" s="11">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>20220131</v>
+        <v>20220228</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>54</v>
+      <c r="C5" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E5" s="11">
-        <v>12000</v>
+        <v>-3065.4515000000001</v>
       </c>
       <c r="F5" s="11">
         <v>0</v>
       </c>
       <c r="G5" s="11">
-        <v>12000</v>
+        <v>-3065.4515000000001</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1482,65 +1482,65 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E6" s="11">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F6" s="11">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="G6" s="11">
-        <v>60</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>20220228</v>
+        <v>20220331</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>53</v>
+      <c r="C7" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E7" s="11">
-        <v>-3065.4515000000001</v>
+        <v>-4.8500000000000014</v>
       </c>
       <c r="F7" s="11">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G7" s="11">
-        <v>-3065.4515000000001</v>
+        <v>55.15</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>20220228</v>
+        <v>20220331</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>54</v>
+      <c r="C8" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E8" s="11">
-        <v>0</v>
+        <v>-283.98700000000002</v>
       </c>
       <c r="F8" s="11">
-        <v>12000</v>
+        <v>-3065.4515000000001</v>
       </c>
       <c r="G8" s="11">
-        <v>12000</v>
+        <v>-3349.4385000000002</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1551,65 +1551,65 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="11">
-        <v>-4.8500000000000014</v>
+        <v>-970</v>
       </c>
       <c r="F9" s="11">
-        <v>60</v>
+        <v>12000</v>
       </c>
       <c r="G9" s="11">
-        <v>55.15</v>
+        <v>11030</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>20220331</v>
+        <v>20220430</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>53</v>
+      <c r="C10" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E10" s="11">
-        <v>-283.98700000000002</v>
+        <v>55.15</v>
       </c>
       <c r="F10" s="11">
-        <v>-3065.4515000000001</v>
+        <v>55.15</v>
       </c>
       <c r="G10" s="11">
-        <v>-3349.4385000000002</v>
+        <v>110.3</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>20220331</v>
+        <v>20220430</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>54</v>
+      <c r="C11" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E11" s="11">
-        <v>-970</v>
+        <v>2836.4295999999999</v>
       </c>
       <c r="F11" s="11">
-        <v>12000</v>
+        <v>-3349.4385000000002</v>
       </c>
       <c r="G11" s="11">
-        <v>11030</v>
+        <v>-513.00890000000027</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1620,64 +1620,18 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E12" s="11">
-        <v>55.15</v>
+        <v>0</v>
       </c>
       <c r="F12" s="11">
-        <v>55.15</v>
+        <v>11030</v>
       </c>
       <c r="G12" s="11">
-        <v>110.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>20220430</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="11">
-        <v>2836.4295999999999</v>
-      </c>
-      <c r="F13" s="11">
-        <v>-3349.4385000000002</v>
-      </c>
-      <c r="G13" s="11">
-        <v>-513.00890000000027</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>20220430</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="11">
-        <v>0</v>
-      </c>
-      <c r="F14" s="11">
-        <v>11030</v>
-      </c>
-      <c r="G14" s="11">
         <v>11030</v>
       </c>
     </row>
@@ -1693,10 +1647,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView zoomScale="120" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="E3" sqref="E3:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1749,65 +1703,65 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E3" s="11">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F3" s="11">
         <v>0</v>
       </c>
       <c r="G3" s="11">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>20220131</v>
+        <v>20220228</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>53</v>
+      <c r="C4" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E4" s="11">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="F4" s="11">
         <v>0</v>
       </c>
       <c r="G4" s="11">
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>20220131</v>
+        <v>20220228</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>54</v>
+      <c r="C5" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E5" s="11">
-        <v>15000</v>
+        <v>-5829.6143000000002</v>
       </c>
       <c r="F5" s="11">
         <v>0</v>
       </c>
       <c r="G5" s="11">
-        <v>15000</v>
+        <v>-5829.6143000000002</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1818,65 +1772,65 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E6" s="11">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="F6" s="11">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G6" s="11">
-        <v>125</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>20220228</v>
+        <v>20220331</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>53</v>
+      <c r="C7" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E7" s="11">
-        <v>-166.61699729843735</v>
+        <v>-6.8332999999999942</v>
       </c>
       <c r="F7" s="11">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="G7" s="11">
-        <v>-166.61699729843735</v>
+        <v>118.16670000000001</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>20220228</v>
+        <v>20220331</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>54</v>
+      <c r="C8" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E8" s="11">
-        <v>0</v>
+        <v>-377.96300000000002</v>
       </c>
       <c r="F8" s="11">
-        <v>15000</v>
+        <v>-5829.6143000000002</v>
       </c>
       <c r="G8" s="11">
-        <v>15000</v>
+        <v>-6207.5772999999999</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1887,65 +1841,65 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E9" s="11">
-        <v>-6.8332999999999942</v>
+        <v>-820</v>
       </c>
       <c r="F9" s="11">
-        <v>125</v>
+        <v>15000</v>
       </c>
       <c r="G9" s="11">
-        <v>118.16670000000001</v>
+        <v>14180</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>20220331</v>
+        <v>20220430</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>53</v>
+      <c r="C10" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E10" s="11">
-        <v>-1407.6016999999999</v>
+        <v>118.16670000000001</v>
       </c>
       <c r="F10" s="11">
-        <v>-166.61699729843735</v>
+        <v>118.16670000000001</v>
       </c>
       <c r="G10" s="11">
-        <v>-1574.2186972984373</v>
+        <v>236.33340000000001</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>20220331</v>
+        <v>20220430</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>54</v>
+      <c r="C11" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E11" s="11">
-        <v>-820</v>
+        <v>1113.9437609697177</v>
       </c>
       <c r="F11" s="11">
-        <v>15000</v>
+        <v>-6207.5772999999999</v>
       </c>
       <c r="G11" s="11">
-        <v>14180</v>
+        <v>-5093.633539030282</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1956,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>46</v>
@@ -1965,56 +1919,10 @@
         <v>0</v>
       </c>
       <c r="F12" s="11">
-        <v>118.16670000000001</v>
+        <v>14180</v>
       </c>
       <c r="G12" s="11">
-        <v>118.16670000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>20220430</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="11">
-        <v>16954.028999999999</v>
-      </c>
-      <c r="F13" s="11">
-        <v>-1574.2186972984373</v>
-      </c>
-      <c r="G13" s="11">
-        <v>15379.81030270156</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>20220430</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="11">
-        <v>118.16670000000001</v>
-      </c>
-      <c r="F14" s="11">
         <v>14180</v>
-      </c>
-      <c r="G14" s="11">
-        <v>14298.1667</v>
       </c>
     </row>
   </sheetData>
@@ -2029,10 +1937,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScale="120" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C14"/>
+      <selection activeCell="D3" sqref="D3:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2078,131 +1986,133 @@
         <v>20220131</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D3" s="11">
-        <v>0</v>
+        <f>O_TransactionActivity2!G3</f>
+        <v>15000</v>
       </c>
       <c r="E3" s="11">
         <v>0</v>
       </c>
       <c r="F3" s="11">
-        <f t="shared" ref="F3:F14" si="0">E3+D3</f>
-        <v>0</v>
+        <f t="shared" ref="F3:F12" si="0">E3+D3</f>
+        <v>15000</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>20220131</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>53</v>
+        <v>20220228</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D4" s="11">
-        <v>0</v>
+        <f>O_TransactionActivity2!G5</f>
+        <v>125</v>
       </c>
       <c r="E4" s="11">
         <v>0</v>
       </c>
       <c r="F4" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>20220131</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>20220228</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D5" s="11">
-        <f>O_TransactionActivity2!G3</f>
-        <v>15000</v>
+        <f>O_TransactionActivity2!G4</f>
+        <v>-5829.6143000000002</v>
       </c>
       <c r="E5" s="11">
         <v>0</v>
       </c>
       <c r="F5" s="11">
         <f t="shared" si="0"/>
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-5829.6143000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>20220228</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D6" s="11">
-        <f>O_TransactionActivity2!G5</f>
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="E6" s="11">
-        <f t="shared" ref="E6:E14" si="1">F3</f>
-        <v>0</v>
+        <f t="shared" ref="E6:E12" si="1">F3</f>
+        <v>15000</v>
       </c>
       <c r="F6" s="11">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>20220228</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>53</v>
+        <v>20220331</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D7" s="11">
-        <f>O_TransactionActivity2!G4</f>
-        <v>-5829.6143000000002</v>
+        <f>O_TransactionActivity2!G7+O_TransactionActivity2!G8</f>
+        <v>-6.8332999999999942</v>
       </c>
       <c r="E7" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="F7" s="11">
         <f t="shared" si="0"/>
-        <v>-5829.6143000000002</v>
+        <v>118.16670000000001</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>20220228</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>54</v>
+        <v>20220331</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D8" s="11">
-        <v>0</v>
+        <f>O_TransactionActivity2!G6</f>
+        <v>-377.96300000000002</v>
       </c>
       <c r="E8" s="11">
         <f t="shared" si="1"/>
-        <v>15000</v>
+        <v>-5829.6143000000002</v>
       </c>
       <c r="F8" s="11">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>-6207.5772999999999</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2210,68 +2120,68 @@
         <v>20220331</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D9" s="11">
-        <f>O_TransactionActivity2!G7+O_TransactionActivity2!G8</f>
-        <v>-6.8332999999999942</v>
+        <f>O_TransactionActivity2!G9</f>
+        <v>-820</v>
       </c>
       <c r="E9" s="11">
         <f t="shared" si="1"/>
-        <v>125</v>
+        <v>15000</v>
       </c>
       <c r="F9" s="11">
         <f t="shared" si="0"/>
-        <v>118.16670000000001</v>
+        <v>14180</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>20220331</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>53</v>
+        <v>20220430</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D10" s="11">
-        <f>O_TransactionActivity2!G6</f>
-        <v>-377.96300000000002</v>
+        <f>O_TransactionActivity2!G11</f>
+        <v>118.16670000000001</v>
       </c>
       <c r="E10" s="11">
         <f t="shared" si="1"/>
-        <v>-5829.6143000000002</v>
+        <v>118.16670000000001</v>
       </c>
       <c r="F10" s="11">
         <f t="shared" si="0"/>
-        <v>-6207.5772999999999</v>
+        <v>236.33340000000001</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>20220331</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>20220430</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D11" s="11">
-        <f>O_TransactionActivity2!G9</f>
-        <v>-820</v>
+        <f>O_TransactionActivity2!G10</f>
+        <v>1113.9437609697177</v>
       </c>
       <c r="E11" s="11">
         <f t="shared" si="1"/>
-        <v>15000</v>
+        <v>-6207.5772999999999</v>
       </c>
       <c r="F11" s="11">
         <f t="shared" si="0"/>
-        <v>14180</v>
+        <v>-5093.633539030282</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2279,7 +2189,7 @@
         <v>20220430</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>46</v>
@@ -2289,57 +2199,11 @@
       </c>
       <c r="E12" s="11">
         <f t="shared" si="1"/>
-        <v>118.16670000000001</v>
+        <v>14180</v>
       </c>
       <c r="F12" s="11">
         <f t="shared" si="0"/>
-        <v>118.16670000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>20220430</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="11">
-        <f>O_TransactionActivity2!G10</f>
-        <v>1113.9437609697177</v>
-      </c>
-      <c r="E13" s="11">
-        <f t="shared" si="1"/>
-        <v>-6207.5772999999999</v>
-      </c>
-      <c r="F13" s="11">
-        <f t="shared" si="0"/>
-        <v>-5093.633539030282</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>20220430</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="11">
-        <f>O_TransactionActivity2!G11</f>
-        <v>118.16670000000001</v>
-      </c>
-      <c r="E14" s="11">
-        <f t="shared" si="1"/>
         <v>14180</v>
-      </c>
-      <c r="F14" s="11">
-        <f t="shared" si="0"/>
-        <v>14298.1667</v>
       </c>
     </row>
   </sheetData>
@@ -2354,10 +2218,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScale="120" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D3" sqref="D3:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2403,131 +2267,133 @@
         <v>20220131</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="11">
-        <v>0</v>
+        <f>O_TransactionActivity!G3</f>
+        <v>12000</v>
       </c>
       <c r="E3" s="11">
         <v>0</v>
       </c>
       <c r="F3" s="11">
-        <f t="shared" ref="F3:F14" si="0">E3+D3</f>
-        <v>0</v>
+        <f t="shared" ref="F3:F12" si="0">E3+D3</f>
+        <v>12000</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>20220131</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>53</v>
+        <v>20220228</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D4" s="11">
-        <v>0</v>
+        <f>O_TransactionActivity!G5</f>
+        <v>60</v>
       </c>
       <c r="E4" s="11">
         <v>0</v>
       </c>
       <c r="F4" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>20220131</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>20220228</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="11">
-        <f>O_TransactionActivity!G3</f>
-        <v>12000</v>
+        <f>O_TransactionActivity!G4</f>
+        <v>-3065.4515000000001</v>
       </c>
       <c r="E5" s="11">
         <v>0</v>
       </c>
       <c r="F5" s="11">
         <f t="shared" si="0"/>
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-3065.4515000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>20220228</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D6" s="11">
-        <f>O_TransactionActivity!G5</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E6" s="11">
-        <f t="shared" ref="E6:E14" si="1">F3</f>
-        <v>0</v>
+        <f t="shared" ref="E6" si="1">F3</f>
+        <v>12000</v>
       </c>
       <c r="F6" s="11">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>20220228</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>53</v>
+        <v>20220331</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D7" s="11">
-        <f>O_TransactionActivity!G4</f>
-        <v>-3065.4515000000001</v>
+        <f>O_TransactionActivity!G7+O_TransactionActivity!G8</f>
+        <v>-4.8500000000000014</v>
       </c>
       <c r="E7" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>F4</f>
+        <v>60</v>
       </c>
       <c r="F7" s="11">
         <f t="shared" si="0"/>
-        <v>-3065.4515000000001</v>
+        <v>55.15</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>20220228</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>54</v>
+        <v>20220331</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D8" s="11">
-        <v>0</v>
+        <f>O_TransactionActivity!G6</f>
+        <v>-283.98700000000002</v>
       </c>
       <c r="E8" s="11">
-        <f t="shared" si="1"/>
-        <v>12000</v>
+        <f>F5</f>
+        <v>-3065.4515000000001</v>
       </c>
       <c r="F8" s="11">
         <f t="shared" si="0"/>
-        <v>12000</v>
+        <v>-3349.4385000000002</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2535,68 +2401,68 @@
         <v>20220331</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="11">
-        <f>O_TransactionActivity!G7+O_TransactionActivity!G8</f>
-        <v>-4.8500000000000014</v>
+        <f>O_TransactionActivity!G9</f>
+        <v>-970</v>
       </c>
       <c r="E9" s="11">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <f>F6</f>
+        <v>12000</v>
       </c>
       <c r="F9" s="11">
-        <f t="shared" si="0"/>
-        <v>55.15</v>
+        <f>E9+D9</f>
+        <v>11030</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>20220331</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>53</v>
+        <v>20220430</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="11">
-        <f>O_TransactionActivity!G6</f>
-        <v>-283.98700000000002</v>
+        <f>O_TransactionActivity!G11</f>
+        <v>55.15</v>
       </c>
       <c r="E10" s="11">
-        <f t="shared" si="1"/>
-        <v>-3065.4515000000001</v>
+        <f>F7</f>
+        <v>55.15</v>
       </c>
       <c r="F10" s="11">
         <f t="shared" si="0"/>
-        <v>-3349.4385000000002</v>
+        <v>110.3</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>20220331</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>20220430</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="11">
-        <f>O_TransactionActivity!G9</f>
-        <v>-970</v>
+        <f>O_TransactionActivity!G10</f>
+        <v>2836.4295999999999</v>
       </c>
       <c r="E11" s="11">
-        <f t="shared" si="1"/>
-        <v>12000</v>
+        <f>F8</f>
+        <v>-3349.4385000000002</v>
       </c>
       <c r="F11" s="11">
         <f t="shared" si="0"/>
-        <v>11030</v>
+        <v>-513.00890000000027</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2604,73 +2470,27 @@
         <v>20220430</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D12" s="11">
-        <f>O_TransactionActivity!G11</f>
-        <v>55.15</v>
+        <v>0</v>
       </c>
       <c r="E12" s="11">
-        <f t="shared" si="1"/>
-        <v>55.15</v>
+        <f>F9</f>
+        <v>11030</v>
       </c>
       <c r="F12" s="11">
         <f t="shared" si="0"/>
-        <v>110.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>20220430</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="11">
-        <f>O_TransactionActivity!G10</f>
-        <v>2836.4295999999999</v>
-      </c>
-      <c r="E13" s="11">
-        <f t="shared" si="1"/>
-        <v>-3349.4385000000002</v>
-      </c>
-      <c r="F13" s="11">
-        <f t="shared" si="0"/>
-        <v>-513.00890000000027</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>20220430</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="11">
-        <v>0</v>
-      </c>
-      <c r="E14" s="11">
-        <f t="shared" si="1"/>
         <v>11030</v>
       </c>
-      <c r="F14" s="11">
-        <f t="shared" si="0"/>
-        <v>11030</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F14">
-    <sortCondition ref="A3:A14"/>
-    <sortCondition ref="B3:B14"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F12">
+    <sortCondition ref="A3:A12"/>
+    <sortCondition ref="B3:B12"/>
   </sortState>
   <pageMargins left="0.78750000000000009" right="0.78750000000000009" top="1.05277777777778" bottom="1.05277777777778" header="0.78750000000000009" footer="0.78750000000000009"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2683,7 +2503,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView zoomScale="120" workbookViewId="0"/>
   </sheetViews>
@@ -2727,11 +2547,11 @@
         <v>20220131</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C3" s="11">
         <f>O_Instrument2!D3+O_Instrument!D3</f>
-        <v>0</v>
+        <v>27000</v>
       </c>
       <c r="D3" s="11">
         <f>O_Instrument2!E3+O_Instrument!E3</f>
@@ -2739,19 +2559,19 @@
       </c>
       <c r="E3" s="11">
         <f>O_Instrument2!F3+O_Instrument!F3</f>
-        <v>0</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>20220131</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>53</v>
+        <v>20220228</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="C4" s="11">
         <f>O_Instrument2!D4+O_Instrument!D4</f>
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="D4" s="11">
         <f>O_Instrument2!E4+O_Instrument!E4</f>
@@ -2759,19 +2579,19 @@
       </c>
       <c r="E4" s="11">
         <f>O_Instrument2!F4+O_Instrument!F4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>20220131</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>20220228</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="C5" s="11">
         <f>O_Instrument2!D5+O_Instrument!D5</f>
-        <v>27000</v>
+        <v>-8895.0658000000003</v>
       </c>
       <c r="D5" s="11">
         <f>O_Instrument2!E5+O_Instrument!E5</f>
@@ -2779,67 +2599,67 @@
       </c>
       <c r="E5" s="11">
         <f>O_Instrument2!F5+O_Instrument!F5</f>
-        <v>27000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>-8895.0658000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>20220228</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C6" s="11">
         <f>O_Instrument2!D6+O_Instrument!D6</f>
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="D6" s="11">
         <f>O_Instrument2!E6+O_Instrument!E6</f>
-        <v>0</v>
+        <v>27000</v>
       </c>
       <c r="E6" s="11">
         <f>O_Instrument2!F6+O_Instrument!F6</f>
-        <v>185</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>20220228</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>53</v>
+        <v>20220331</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="C7" s="11">
         <f>O_Instrument2!D7+O_Instrument!D7</f>
-        <v>-8895.0658000000003</v>
+        <v>-11.683299999999996</v>
       </c>
       <c r="D7" s="11">
         <f>O_Instrument2!E7+O_Instrument!E7</f>
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E7" s="11">
         <f>O_Instrument2!F7+O_Instrument!F7</f>
-        <v>-8895.0658000000003</v>
+        <v>173.3167</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>20220228</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>54</v>
+        <v>20220331</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="C8" s="11">
         <f>O_Instrument2!D8+O_Instrument!D8</f>
-        <v>0</v>
+        <v>-661.95</v>
       </c>
       <c r="D8" s="11">
         <f>O_Instrument2!E8+O_Instrument!E8</f>
-        <v>27000</v>
+        <v>-8895.0658000000003</v>
       </c>
       <c r="E8" s="11">
         <f>O_Instrument2!F8+O_Instrument!F8</f>
-        <v>27000</v>
+        <v>-9557.015800000001</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2847,59 +2667,59 @@
         <v>20220331</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C9" s="11">
         <f>O_Instrument2!D9+O_Instrument!D9</f>
-        <v>-11.683299999999996</v>
+        <v>-1790</v>
       </c>
       <c r="D9" s="11">
         <f>O_Instrument2!E9+O_Instrument!E9</f>
-        <v>185</v>
+        <v>27000</v>
       </c>
       <c r="E9" s="11">
         <f>O_Instrument2!F9+O_Instrument!F9</f>
-        <v>173.3167</v>
+        <v>25210</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>20220331</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>53</v>
+        <v>20220430</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="C10" s="11">
         <f>O_Instrument2!D10+O_Instrument!D10</f>
-        <v>-661.95</v>
+        <v>173.3167</v>
       </c>
       <c r="D10" s="11">
         <f>O_Instrument2!E10+O_Instrument!E10</f>
-        <v>-8895.0658000000003</v>
+        <v>173.3167</v>
       </c>
       <c r="E10" s="11">
         <f>O_Instrument2!F10+O_Instrument!F10</f>
-        <v>-9557.015800000001</v>
+        <v>346.63339999999999</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>20220331</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>20220430</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="C11" s="11">
         <f>O_Instrument2!D11+O_Instrument!D11</f>
-        <v>-1790</v>
+        <v>3950.3733609697174</v>
       </c>
       <c r="D11" s="11">
         <f>O_Instrument2!E11+O_Instrument!E11</f>
-        <v>27000</v>
+        <v>-9557.015800000001</v>
       </c>
       <c r="E11" s="11">
         <f>O_Instrument2!F11+O_Instrument!F11</f>
-        <v>25210</v>
+        <v>-5606.6424390302818</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2907,59 +2727,19 @@
         <v>20220430</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C12" s="11">
         <f>O_Instrument2!D12+O_Instrument!D12</f>
-        <v>55.15</v>
+        <v>0</v>
       </c>
       <c r="D12" s="11">
         <f>O_Instrument2!E12+O_Instrument!E12</f>
-        <v>173.3167</v>
+        <v>25210</v>
       </c>
       <c r="E12" s="11">
         <f>O_Instrument2!F12+O_Instrument!F12</f>
-        <v>228.4667</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>20220430</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="11">
-        <f>O_Instrument2!D13+O_Instrument!D13</f>
-        <v>3950.3733609697174</v>
-      </c>
-      <c r="D13" s="11">
-        <f>O_Instrument2!E13+O_Instrument!E13</f>
-        <v>-9557.015800000001</v>
-      </c>
-      <c r="E13" s="11">
-        <f>O_Instrument2!F13+O_Instrument!F13</f>
-        <v>-5606.6424390302818</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>20220430</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="11">
-        <f>O_Instrument2!D14+O_Instrument!D14</f>
-        <v>118.16670000000001</v>
-      </c>
-      <c r="D14" s="11">
-        <f>O_Instrument2!E14+O_Instrument!E14</f>
         <v>25210</v>
-      </c>
-      <c r="E14" s="11">
-        <f>O_Instrument2!F14+O_Instrument!F14</f>
-        <v>25328.166700000002</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestDriver/IFRS9_Stage3/Test.xlsx
+++ b/src/test/resources/TestDriver/IFRS9_Stage3/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\IFRS9_Stage3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF942A89-957F-41D3-A4D1-5B7926AA0DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D951D8F-632A-489D-B4E6-008CE011B1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -999,7 +999,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1360,7 +1360,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView zoomScale="120" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>20220131</v>
+        <v>20250131</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -1430,7 +1430,7 @@
     </row>
     <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>20220228</v>
+        <v>20250228</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>20220228</v>
+        <v>20250228</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -1476,7 +1476,7 @@
     </row>
     <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>20220228</v>
+        <v>20250228</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -1499,7 +1499,7 @@
     </row>
     <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>20220331</v>
+        <v>20250331</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -1522,7 +1522,7 @@
     </row>
     <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>20220331</v>
+        <v>20250331</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -1545,7 +1545,7 @@
     </row>
     <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>20220331</v>
+        <v>20250331</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>20220430</v>
+        <v>20250430</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>20220430</v>
+        <v>20250430</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -1614,7 +1614,7 @@
     </row>
     <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>20220430</v>
+        <v>20250430</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>20220131</v>
+        <v>20250131</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -1720,7 +1720,7 @@
     </row>
     <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>20220228</v>
+        <v>20250228</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>20220228</v>
+        <v>20250228</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -1766,7 +1766,7 @@
     </row>
     <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>20220228</v>
+        <v>20250228</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>20220331</v>
+        <v>20250331</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -1812,7 +1812,7 @@
     </row>
     <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>20220331</v>
+        <v>20250331</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>20220331</v>
+        <v>20250331</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -1858,7 +1858,7 @@
     </row>
     <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>20220430</v>
+        <v>20250430</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -1881,7 +1881,7 @@
     </row>
     <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>20220430</v>
+        <v>20250430</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -1904,7 +1904,7 @@
     </row>
     <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>20220430</v>
+        <v>20250430</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>20220131</v>
+        <v>20250131</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>54</v>
@@ -2005,7 +2005,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>20220228</v>
+        <v>20250228</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>52</v>
@@ -2027,7 +2027,7 @@
     </row>
     <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>20220228</v>
+        <v>20250228</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>53</v>
@@ -2049,7 +2049,7 @@
     </row>
     <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>20220228</v>
+        <v>20250228</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>54</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>20220331</v>
+        <v>20250331</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>52</v>
@@ -2094,7 +2094,7 @@
     </row>
     <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>20220331</v>
+        <v>20250331</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>53</v>
@@ -2117,7 +2117,7 @@
     </row>
     <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>20220331</v>
+        <v>20250331</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>54</v>
@@ -2140,7 +2140,7 @@
     </row>
     <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>20220430</v>
+        <v>20250430</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>52</v>
@@ -2163,7 +2163,7 @@
     </row>
     <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>20220430</v>
+        <v>20250430</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>53</v>
@@ -2186,7 +2186,7 @@
     </row>
     <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>20220430</v>
+        <v>20250430</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>54</v>
@@ -2264,7 +2264,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>20220131</v>
+        <v>20250131</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>54</v>
@@ -2286,7 +2286,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>20220228</v>
+        <v>20250228</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>52</v>
@@ -2308,7 +2308,7 @@
     </row>
     <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>20220228</v>
+        <v>20250228</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>53</v>
@@ -2330,7 +2330,7 @@
     </row>
     <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>20220228</v>
+        <v>20250228</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>54</v>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>20220331</v>
+        <v>20250331</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>52</v>
@@ -2365,7 +2365,7 @@
         <v>-4.8500000000000014</v>
       </c>
       <c r="E7" s="11">
-        <f>F4</f>
+        <f t="shared" ref="E7:E12" si="2">F4</f>
         <v>60</v>
       </c>
       <c r="F7" s="11">
@@ -2375,7 +2375,7 @@
     </row>
     <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>20220331</v>
+        <v>20250331</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>53</v>
@@ -2388,7 +2388,7 @@
         <v>-283.98700000000002</v>
       </c>
       <c r="E8" s="11">
-        <f>F5</f>
+        <f t="shared" si="2"/>
         <v>-3065.4515000000001</v>
       </c>
       <c r="F8" s="11">
@@ -2398,7 +2398,7 @@
     </row>
     <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>20220331</v>
+        <v>20250331</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>54</v>
@@ -2411,7 +2411,7 @@
         <v>-970</v>
       </c>
       <c r="E9" s="11">
-        <f>F6</f>
+        <f t="shared" si="2"/>
         <v>12000</v>
       </c>
       <c r="F9" s="11">
@@ -2421,7 +2421,7 @@
     </row>
     <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>20220430</v>
+        <v>20250430</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>52</v>
@@ -2434,7 +2434,7 @@
         <v>55.15</v>
       </c>
       <c r="E10" s="11">
-        <f>F7</f>
+        <f t="shared" si="2"/>
         <v>55.15</v>
       </c>
       <c r="F10" s="11">
@@ -2444,7 +2444,7 @@
     </row>
     <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>20220430</v>
+        <v>20250430</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>53</v>
@@ -2457,7 +2457,7 @@
         <v>2836.4295999999999</v>
       </c>
       <c r="E11" s="11">
-        <f>F8</f>
+        <f t="shared" si="2"/>
         <v>-3349.4385000000002</v>
       </c>
       <c r="F11" s="11">
@@ -2467,7 +2467,7 @@
     </row>
     <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>20220430</v>
+        <v>20250430</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>54</v>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="11">
-        <f>F9</f>
+        <f t="shared" si="2"/>
         <v>11030</v>
       </c>
       <c r="F12" s="11">
@@ -2505,7 +2505,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0"/>
+    <sheetView zoomScale="120" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2544,7 +2546,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>20220131</v>
+        <v>20250131</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>54</v>
@@ -2564,7 +2566,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>20220228</v>
+        <v>20250228</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>52</v>
@@ -2584,7 +2586,7 @@
     </row>
     <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>20220228</v>
+        <v>20250228</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>53</v>
@@ -2604,7 +2606,7 @@
     </row>
     <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>20220228</v>
+        <v>20250228</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>54</v>
@@ -2624,7 +2626,7 @@
     </row>
     <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>20220331</v>
+        <v>20250331</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>52</v>
@@ -2644,7 +2646,7 @@
     </row>
     <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>20220331</v>
+        <v>20250331</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>53</v>
@@ -2664,7 +2666,7 @@
     </row>
     <row r="9" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>20220331</v>
+        <v>20250331</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>54</v>
@@ -2684,7 +2686,7 @@
     </row>
     <row r="10" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>20220430</v>
+        <v>20250430</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>52</v>
@@ -2704,7 +2706,7 @@
     </row>
     <row r="11" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>20220430</v>
+        <v>20250430</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>53</v>
@@ -2724,7 +2726,7 @@
     </row>
     <row r="12" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>20220430</v>
+        <v>20250430</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>54</v>

--- a/src/test/resources/TestDriver/IFRS9_Stage3/Test.xlsx
+++ b/src/test/resources/TestDriver/IFRS9_Stage3/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\IFRS9_Stage3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D951D8F-632A-489D-B4E6-008CE011B1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F891C3-54DF-4B50-9795-FF5FE4345A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="59">
   <si>
     <t>Steps</t>
   </si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t>{}</t>
+  </si>
+  <si>
+    <t>IFRS9_Stage3/ActivityData/ActivityData_Custom.xlsx</t>
   </si>
 </sst>
 </file>
@@ -443,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -481,144 +484,155 @@
     </row>
     <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C9" s="3">
         <v>45688</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="3">
-        <v>45716</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="C11" s="3">
+        <v>45716</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="3">
-        <v>45747</v>
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="C14" s="3">
+        <v>45747</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C16" s="3">
         <v>45777</v>
       </c>
     </row>
@@ -998,7 +1012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
+    <sheetView zoomScale="120" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
